--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf2-Cd44.xlsx
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H2">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I2">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J2">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N2">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P2">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q2">
-        <v>51.44472575053678</v>
+        <v>7.696860605166</v>
       </c>
       <c r="R2">
-        <v>463.002531754831</v>
+        <v>69.27174544649399</v>
       </c>
       <c r="S2">
-        <v>0.007952799374481526</v>
+        <v>0.002045155685742768</v>
       </c>
       <c r="T2">
-        <v>0.007952799374481526</v>
+        <v>0.002045155685742768</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H3">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I3">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J3">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>351.153809</v>
       </c>
       <c r="O3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P3">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q3">
-        <v>25.18642891634522</v>
+        <v>36.657999582937</v>
       </c>
       <c r="R3">
-        <v>226.677860247107</v>
+        <v>329.921996246433</v>
       </c>
       <c r="S3">
-        <v>0.003893550081355886</v>
+        <v>0.009740505918046658</v>
       </c>
       <c r="T3">
-        <v>0.003893550081355886</v>
+        <v>0.00974050591804666</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H4">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I4">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J4">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N4">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P4">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q4">
-        <v>12.414669932988</v>
+        <v>17.440265070757</v>
       </c>
       <c r="R4">
-        <v>111.732029396892</v>
+        <v>156.962385636813</v>
       </c>
       <c r="S4">
-        <v>0.001919173984058636</v>
+        <v>0.004634104617456614</v>
       </c>
       <c r="T4">
-        <v>0.001919173984058636</v>
+        <v>0.004634104617456615</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.2151743333333333</v>
+        <v>0.313179</v>
       </c>
       <c r="H5">
-        <v>0.645523</v>
+        <v>0.939537</v>
       </c>
       <c r="I5">
-        <v>0.01945888736810517</v>
+        <v>0.02707464596575709</v>
       </c>
       <c r="J5">
-        <v>0.01945888736810517</v>
+        <v>0.0270746459657571</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N5">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P5">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q5">
-        <v>36.82898713936333</v>
+        <v>40.09920845147</v>
       </c>
       <c r="R5">
-        <v>331.4608842542699</v>
+        <v>360.89287606323</v>
       </c>
       <c r="S5">
-        <v>0.005693363928209118</v>
+        <v>0.01065487974451105</v>
       </c>
       <c r="T5">
-        <v>0.005693363928209118</v>
+        <v>0.01065487974451105</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>24.231544</v>
       </c>
       <c r="I6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J6">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N6">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P6">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q6">
-        <v>1931.12427534273</v>
+        <v>198.5092832064587</v>
       </c>
       <c r="R6">
-        <v>17380.11847808457</v>
+        <v>1786.583548858128</v>
       </c>
       <c r="S6">
-        <v>0.2985309709583107</v>
+        <v>0.05274649107584486</v>
       </c>
       <c r="T6">
-        <v>0.2985309709583107</v>
+        <v>0.05274649107584486</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>24.231544</v>
       </c>
       <c r="I7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J7">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>351.153809</v>
       </c>
       <c r="O7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P7">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q7">
-        <v>945.4443303945662</v>
+        <v>945.4443303945664</v>
       </c>
       <c r="R7">
-        <v>8508.998973551095</v>
+        <v>8508.998973551097</v>
       </c>
       <c r="S7">
-        <v>0.1461554895992532</v>
+        <v>0.2512168203438587</v>
       </c>
       <c r="T7">
-        <v>0.1461554895992532</v>
+        <v>0.2512168203438588</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>24.231544</v>
       </c>
       <c r="I8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J8">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N8">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P8">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q8">
-        <v>466.019988020064</v>
+        <v>449.8008598210729</v>
       </c>
       <c r="R8">
-        <v>4194.179892180576</v>
+        <v>4048.207738389657</v>
       </c>
       <c r="S8">
-        <v>0.07204166054249368</v>
+        <v>0.119517922060018</v>
       </c>
       <c r="T8">
-        <v>0.07204166054249368</v>
+        <v>0.119517922060018</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>24.231544</v>
       </c>
       <c r="I9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817221</v>
       </c>
       <c r="J9">
-        <v>0.730444748601188</v>
+        <v>0.6982806158817222</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N9">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P9">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q9">
-        <v>1382.480906711173</v>
+        <v>1034.196347729751</v>
       </c>
       <c r="R9">
-        <v>12442.32816040056</v>
+        <v>9307.767129567761</v>
       </c>
       <c r="S9">
-        <v>0.2137166275011303</v>
+        <v>0.2747993824020005</v>
       </c>
       <c r="T9">
-        <v>0.2137166275011303</v>
+        <v>0.2747993824020006</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H10">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J10">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N10">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P10">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q10">
-        <v>537.0693791827479</v>
+        <v>71.21660285509934</v>
       </c>
       <c r="R10">
-        <v>4833.62441264473</v>
+        <v>640.949425695894</v>
       </c>
       <c r="S10">
-        <v>0.08302512960277901</v>
+        <v>0.01892317500860467</v>
       </c>
       <c r="T10">
-        <v>0.08302512960277901</v>
+        <v>0.01892317500860466</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H11">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J11">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>351.153809</v>
       </c>
       <c r="O11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P11">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q11">
-        <v>262.9396802993122</v>
+        <v>339.1848094544148</v>
       </c>
       <c r="R11">
-        <v>2366.45712269381</v>
+        <v>3052.663285089733</v>
       </c>
       <c r="S11">
-        <v>0.04064763674999131</v>
+        <v>0.09012580286405132</v>
       </c>
       <c r="T11">
-        <v>0.04064763674999131</v>
+        <v>0.09012580286405132</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H12">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J12">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N12">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P12">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q12">
-        <v>129.60588236004</v>
+        <v>161.3692250575681</v>
       </c>
       <c r="R12">
-        <v>1166.45294124036</v>
+        <v>1452.323025518113</v>
       </c>
       <c r="S12">
-        <v>0.02003567061782418</v>
+        <v>0.04287789594485868</v>
       </c>
       <c r="T12">
-        <v>0.02003567061782418</v>
+        <v>0.04287789594485868</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.246363333333333</v>
+        <v>2.897745666666667</v>
       </c>
       <c r="H13">
-        <v>6.73909</v>
+        <v>8.693237</v>
       </c>
       <c r="I13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="J13">
-        <v>0.2031456559619469</v>
+        <v>0.2505130868410934</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N13">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P13">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q13">
-        <v>384.4849198882333</v>
+        <v>371.0252204873589</v>
       </c>
       <c r="R13">
-        <v>3460.3642789941</v>
+        <v>3339.22698438623</v>
       </c>
       <c r="S13">
-        <v>0.05943721899135242</v>
+        <v>0.09858621302357869</v>
       </c>
       <c r="T13">
-        <v>0.05943721899135242</v>
+        <v>0.09858621302357869</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H14">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J14">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>239.0839323333333</v>
+        <v>24.576554</v>
       </c>
       <c r="N14">
-        <v>717.251797</v>
+        <v>73.729662</v>
       </c>
       <c r="O14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546639</v>
       </c>
       <c r="P14">
-        <v>0.4086975387666237</v>
+        <v>0.07553767049546638</v>
       </c>
       <c r="Q14">
-        <v>124.1266396530907</v>
+        <v>6.860217361713334</v>
       </c>
       <c r="R14">
-        <v>1117.139756877816</v>
+        <v>61.74195625542</v>
       </c>
       <c r="S14">
-        <v>0.01918863883105244</v>
+        <v>0.001822848725274099</v>
       </c>
       <c r="T14">
-        <v>0.01918863883105244</v>
+        <v>0.001822848725274099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H15">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J15">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>351.153809</v>
       </c>
       <c r="O15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="P15">
-        <v>0.200091095020045</v>
+        <v>0.359764849016532</v>
       </c>
       <c r="Q15">
-        <v>60.77020998046132</v>
+        <v>32.67330124385444</v>
       </c>
       <c r="R15">
-        <v>546.9318898241519</v>
+        <v>294.05971119469</v>
       </c>
       <c r="S15">
-        <v>0.009394418589444635</v>
+        <v>0.008681719890575305</v>
       </c>
       <c r="T15">
-        <v>0.009394418589444635</v>
+        <v>0.008681719890575307</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H16">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J16">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.695868</v>
+        <v>55.68784966666667</v>
       </c>
       <c r="N16">
-        <v>173.087604</v>
+        <v>167.063549</v>
       </c>
       <c r="O16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="P16">
-        <v>0.09862711817759588</v>
+        <v>0.1711603033819035</v>
       </c>
       <c r="Q16">
-        <v>29.954309964768</v>
+        <v>15.54452072978778</v>
       </c>
       <c r="R16">
-        <v>269.588789682912</v>
+        <v>139.90068656809</v>
       </c>
       <c r="S16">
-        <v>0.004630613033219389</v>
+        <v>0.004130380759570239</v>
       </c>
       <c r="T16">
-        <v>0.004630613033219389</v>
+        <v>0.00413038075957024</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.519176</v>
+        <v>0.2791366666666666</v>
       </c>
       <c r="H17">
-        <v>1.557528</v>
+        <v>0.83741</v>
       </c>
       <c r="I17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142748</v>
       </c>
       <c r="J17">
-        <v>0.04695070806875992</v>
+        <v>0.02413165131142749</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>171.15883</v>
+        <v>128.0392633333333</v>
       </c>
       <c r="N17">
-        <v>513.4764899999999</v>
+        <v>384.11779</v>
       </c>
       <c r="O17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="P17">
-        <v>0.2925842480357352</v>
+        <v>0.3935371771060981</v>
       </c>
       <c r="Q17">
-        <v>88.86155672407997</v>
+        <v>35.74045316932222</v>
       </c>
       <c r="R17">
-        <v>799.7540105167197</v>
+        <v>321.6640785239</v>
       </c>
       <c r="S17">
-        <v>0.01373703761504345</v>
+        <v>0.009496701936007842</v>
       </c>
       <c r="T17">
-        <v>0.01373703761504345</v>
+        <v>0.009496701936007846</v>
       </c>
     </row>
   </sheetData>
